--- a/20220426_algo_v2_10/algo_results/perf_result/user_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/user_cf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01185874336631069</v>
+        <v>0.01301078783916313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01193129670905992</v>
+        <v>0.01307787876806382</v>
       </c>
       <c r="D2" t="n">
+        <v>0.01262675825973176</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01236263736263736</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01279695498096863</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01142032029404043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01302185577803952</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01297169811320755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01142181961402127</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01230366492146597</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01179090789990829</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01193051458538184</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01181567546278062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.01195637892523978</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01244922028567684</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.01239588115694891</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01353029609778417</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01224543251915395</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01257861635220126</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01200551072623499</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.01276762914947947</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.01218314010611122</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01312953164805017</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.01212240351222069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01264578692176648</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01219832109129066</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0127718103222426</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.01275927501145063</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.01211922698984605</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0132705759299209</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0121695891127977</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01226712149042246</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.01211367207962284</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.01366817081943627</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.01251310272536688</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.01225345652316362</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.01230688661953391</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.01257202723939235</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.01284319507240679</v>
-      </c>
       <c r="W2" t="n">
-        <v>0.01240483066421633</v>
+        <v>0.013017596650749</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01301844825330368</v>
+        <v>0.01303208906352325</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01217197827367319</v>
+        <v>0.01281715929897986</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01212399239792909</v>
+        <v>0.0123699194973493</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01283730678543359</v>
+        <v>0.01313553783819109</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01129275819053247</v>
+        <v>0.01206320068183308</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01302185577803952</v>
+        <v>0.01211684569033272</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01251556254504947</v>
+        <v>0.01257944047697045</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01232302045097011</v>
+        <v>0.01269965959675308</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01251228300032755</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01391520219507415</v>
+        <v>0.0127330007876083</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01217436837282367</v>
+        <v>0.01259759858277016</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0110863290474941</v>
+        <v>0.01232544417491641</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01231979030144168</v>
+        <v>0.01186496230744018</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01167289658338252</v>
+        <v>0.01332984840564558</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0120039357166284</v>
+        <v>0.01238694455367676</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01218713143755733</v>
+        <v>0.01148897058823529</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01245819946233034</v>
+        <v>0.0127484309623431</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01289520193755318</v>
+        <v>0.01148520049878585</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01160884108349183</v>
+        <v>0.01187196641742096</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01245493280891511</v>
+        <v>0.01179245283018868</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01220392362705859</v>
+        <v>0.01241911236028499</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01141957078164993</v>
+        <v>0.0130278232405892</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01218553459119497</v>
+        <v>0.01251884380939896</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01245166786814339</v>
+        <v>0.01218793001769216</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01276512175962294</v>
+        <v>0.01174617757070674</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01283982967572879</v>
+        <v>0.01159439276824316</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01056915906256154</v>
+        <v>0.01187586116396562</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01198742303157343</v>
+        <v>0.01329491125810466</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01235772116247186</v>
+        <v>0.01238324907652893</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0005895921122299639</v>
+        <v>0.0005529910627710079</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3083475298126065</v>
+        <v>0.317891373801917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2993421052631579</v>
+        <v>0.3407155025553663</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319672131147541</v>
+        <v>0.3238255033557047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3079470198675497</v>
+        <v>0.3098360655737705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3231511254019293</v>
+        <v>0.3140096618357488</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3037766830870279</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3184818481848185</v>
+        <v>0.3209677419354839</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3120805369127517</v>
+        <v>0.3256578947368421</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3233830845771145</v>
+        <v>0.2880794701986755</v>
       </c>
       <c r="K3" t="n">
+        <v>0.3202725724020443</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.286624203821656</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3089983022071307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2821316614420062</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.299835255354201</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.312396694214876</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3290937996820349</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.3121869782971619</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.3142389525368249</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3044925124792013</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.3181076672104405</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3305647840531561</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3251633986928105</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.320785597381342</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.3068181818181818</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.3160377358490566</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.3114478114478115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.3116883116883117</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.3227953410981697</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2938230383973289</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.3129032258064516</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.3163097199341021</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.3107438016528926</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.3169877408056042</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.3192488262910798</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.3165829145728643</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.3105095541401274</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.3167808219178082</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.3446519524617996</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3131313131313131</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.3207547169811321</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.3042763157894737</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.3431855500821018</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.3162251655629139</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.3097199341021417</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.3062200956937799</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.3218390804597701</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.315525876460768</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.3246329526916802</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.3089700996677741</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.3008130081300813</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.3250414593698176</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.2833607907742998</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.334453781512605</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.3131147540983606</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.3037156704361874</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.3215488215488215</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.3555926544240401</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.3094841930116473</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.2859560067681895</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.3280977312390925</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.2986577181208054</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.3029801324503311</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.3059210526315789</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.3259005145797599</v>
-      </c>
       <c r="AO3" t="n">
-        <v>0.3208469055374593</v>
+        <v>0.2911813643926789</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3</v>
+        <v>0.297208538587849</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.3049759229534511</v>
+        <v>0.313588850174216</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3064250411861614</v>
+        <v>0.3214890016920474</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.32569558101473</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3084577114427861</v>
+        <v>0.314662273476112</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3198653198653199</v>
+        <v>0.301948051948052</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3266331658291458</v>
+        <v>0.3118466898954704</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3213114754098361</v>
+        <v>0.2954924874791319</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2728813559322034</v>
+        <v>0.3001658374792703</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.3133561643835616</v>
+        <v>0.3338815789473684</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.3135778998636154</v>
+        <v>0.3117193336878386</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01445982748056487</v>
+        <v>0.01256244501832806</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,321 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0228391167192429</v>
+        <v>0.02499842974687519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02294792586054722</v>
+        <v>0.02518891687657431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02455455518478877</v>
+        <v>0.02430577419557962</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02343897675004726</v>
+        <v>0.02377657566989558</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02523382085242609</v>
+        <v>0.02459171448388927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02331442974165091</v>
+        <v>0.02200303490136571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02432568691706579</v>
+        <v>0.02502829832725443</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02347891946478162</v>
+        <v>0.02494959677419355</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02457312078633987</v>
+        <v>0.02197247127162521</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02451134435296336</v>
+        <v>0.02369698115585807</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0233453214713862</v>
+        <v>0.02265005662514157</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02555709429686516</v>
+        <v>0.022973996465539</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02342864340597052</v>
+        <v>0.02268145161290323</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02363050483351235</v>
+        <v>0.02299576726261925</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02329974811083124</v>
+        <v>0.02395662589837347</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02628930817610063</v>
+        <v>0.02384557153671461</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02407360725989412</v>
+        <v>0.0259919638372677</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02358877325764743</v>
+        <v>0.02356647763074984</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02367310961405276</v>
+        <v>0.02418897637795276</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02415246241902006</v>
+        <v>0.02310022721534966</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02470069313169503</v>
+        <v>0.02454991816693944</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02387117145563625</v>
+        <v>0.02504877588268614</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0250330209447135</v>
+        <v>0.02505981614406246</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0234212680224139</v>
+        <v>0.02464943721310444</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02330855486959808</v>
+        <v>0.02378106322743001</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02469913679037238</v>
+        <v>0.02522273811017694</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02171991413057204</v>
+        <v>0.0231898670363602</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02506770800529067</v>
+        <v>0.02332618837473207</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02406905677020981</v>
+        <v>0.02418288305308899</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02368503937007874</v>
+        <v>0.02443786609561</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02408726905857873</v>
+        <v>0.02224609745307464</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02678234628442097</v>
+        <v>0.02447023208879919</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02342716795767995</v>
+        <v>0.02423018677435639</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02134512156615093</v>
+        <v>0.02371043006684323</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02374786837617634</v>
+        <v>0.02287375205358272</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02246765541180183</v>
+        <v>0.02559116853791633</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02309293961764149</v>
+        <v>0.023841059602649</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.02344045368620038</v>
+        <v>0.02210712481051036</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02399898951623089</v>
+        <v>0.02449133383571967</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.02479390850166761</v>
+        <v>0.02209874984215179</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02235271831786323</v>
+        <v>0.0228319142226427</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02393248519964731</v>
+        <v>0.02273014269478469</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02347299343765775</v>
+        <v>0.02391441157960982</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02200720925820527</v>
+        <v>0.0250535062319023</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02344488561164682</v>
+        <v>0.0240796772566818</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02397022645556046</v>
+        <v>0.02343011904012093</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02457002457002457</v>
+        <v>0.02263960032884336</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02469291338582677</v>
+        <v>0.02231326820044122</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02035012323832396</v>
+        <v>0.02284776571572835</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02309148264984227</v>
+        <v>0.02557158153303521</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02377801630133724</v>
+        <v>0.02381967166078613</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.00112938605802984</v>
+        <v>0.001053753822557194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04726426076833527</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.04726426076833527</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.04726426076833527</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.04726426076833527</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.04675669383003493</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0002858774477889798</v>
       </c>
     </row>
   </sheetData>

--- a/20220426_algo_v2_10/algo_results/perf_result/user_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/user_cf.xlsx
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01301078783916313</v>
+        <v>0.01297935103244838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01307787876806382</v>
+        <v>0.01238856843209229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01262675825973176</v>
+        <v>0.01272131147540984</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01236263736263736</v>
+        <v>0.01187196641742096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01279695498096863</v>
+        <v>0.01301419135439147</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01142032029404043</v>
+        <v>0.01175003282132073</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01302185577803952</v>
+        <v>0.01224222585924714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01297169811320755</v>
+        <v>0.01205766710353866</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01142181961402127</v>
+        <v>0.01290364839195651</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01230366492146597</v>
+        <v>0.01284319507240679</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01179090789990829</v>
+        <v>0.01166601127277494</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01193051458538184</v>
+        <v>0.01160807974816369</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01181567546278062</v>
+        <v>0.01251638269986894</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01195637892523978</v>
+        <v>0.01155538047403322</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01244922028567684</v>
+        <v>0.01160199265862611</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01239588115694891</v>
+        <v>0.01210970740328599</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01353029609778417</v>
+        <v>0.01137633984349313</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01224543251915395</v>
+        <v>0.01192191798768505</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01257861635220126</v>
+        <v>0.01218872870249017</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01200551072623499</v>
+        <v>0.01322595429843515</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01276762914947947</v>
+        <v>0.01205766710353866</v>
       </c>
       <c r="W2" t="n">
-        <v>0.013017596650749</v>
+        <v>0.01167825744652933</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01303208906352325</v>
+        <v>0.0111599816188538</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01281715929897986</v>
+        <v>0.01226792626123466</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0123699194973493</v>
+        <v>0.012</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01313553783819109</v>
+        <v>0.01187897880160137</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01206320068183308</v>
+        <v>0.01175311884438608</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01211684569033272</v>
+        <v>0.01262015301118159</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01257944047697045</v>
+        <v>0.01251392255781956</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01269965959675308</v>
+        <v>0.01290026848274507</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0115606936416185</v>
+        <v>0.01253280839895013</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0127330007876083</v>
+        <v>0.01296660117878192</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01259759858277016</v>
+        <v>0.01178010471204189</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01232544417491641</v>
+        <v>0.01261850277868585</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01186496230744018</v>
+        <v>0.0133604034317899</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01332984840564558</v>
+        <v>0.01230688661953391</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01238694455367676</v>
+        <v>0.01277934333835769</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01148897058823529</v>
+        <v>0.01206161914126516</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0127484309623431</v>
+        <v>0.01198271346254584</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01148520049878585</v>
+        <v>0.01154401154401154</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01187196641742096</v>
+        <v>0.0127826941986234</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01179245283018868</v>
+        <v>0.01367264163286667</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01241911236028499</v>
+        <v>0.01257532093266964</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0130278232405892</v>
+        <v>0.01256462273411426</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01251884380939896</v>
+        <v>0.01244514311914587</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01218793001769216</v>
+        <v>0.01167825744652933</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01174617757070674</v>
+        <v>0.01258438749426493</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01159439276824316</v>
+        <v>0.01359654856844032</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01187586116396562</v>
+        <v>0.01349138777916039</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01329491125810466</v>
+        <v>0.0130167451596023</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01238324907652893</v>
+        <v>0.0123542734169672</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0005529910627710079</v>
+        <v>0.000603791569630046</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.317891373801917</v>
+        <v>0.3245901639344262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3407155025553663</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3238255033557047</v>
+        <v>0.3164763458401305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3098360655737705</v>
+        <v>0.2986798679867987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3140096618357488</v>
+        <v>0.3241042345276873</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.2905844155844156</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3209677419354839</v>
+        <v>0.3164128595600677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3256578947368421</v>
+        <v>0.3041322314049587</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2880794701986755</v>
+        <v>0.3172302737520129</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3202725724020443</v>
+        <v>0.3197389885807504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.286624203821656</v>
+        <v>0.3016949152542373</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3089983022071307</v>
+        <v>0.2974789915966387</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2821316614420062</v>
+        <v>0.308562197092084</v>
       </c>
       <c r="O3" t="n">
-        <v>0.299835255354201</v>
+        <v>0.2880523731587561</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2915980230642504</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.312396694214876</v>
+        <v>0.3027823240589198</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3290937996820349</v>
+        <v>0.2957264957264957</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3121869782971619</v>
+        <v>0.2940226171243942</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3142389525368249</v>
+        <v>0.3136593591905565</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3044925124792013</v>
+        <v>0.3300653594771242</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3181076672104405</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3305647840531561</v>
+        <v>0.2986577181208054</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3251633986928105</v>
+        <v>0.2866779089376054</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.320785597381342</v>
+        <v>0.3101160862354892</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3068181818181818</v>
+        <v>0.3029801324503311</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3160377358490566</v>
+        <v>0.3052276559865092</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.3028764805414552</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3114478114478115</v>
+        <v>0.3254637436762226</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3116883116883117</v>
+        <v>0.310064935064935</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3227953410981697</v>
+        <v>0.3234811165845649</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2938230383973289</v>
+        <v>0.3141447368421053</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3129032258064516</v>
+        <v>0.3219512195121951</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.3163097199341021</v>
+        <v>0.3010033444816054</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3107438016528926</v>
+        <v>0.3356521739130435</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.3169877408056042</v>
+        <v>0.3417085427135678</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3192488262910798</v>
+        <v>0.3128119800332779</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.3165829145728643</v>
+        <v>0.3207236842105263</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.300163132137031</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.3105095541401274</v>
+        <v>0.2990196078431372</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2911813643926789</v>
+        <v>0.284329563812601</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.297208538587849</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.313588850174216</v>
+        <v>0.3370967741935484</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3214890016920474</v>
+        <v>0.3127035830618892</v>
       </c>
       <c r="AS3" t="n">
+        <v>0.320534223706177</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.319327731092437</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2951907131011609</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.318407960199005</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.3280757097791798</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.3433333333333333</v>
+      </c>
+      <c r="AY3" t="n">
         <v>0.32569558101473</v>
       </c>
-      <c r="AT3" t="n">
-        <v>0.314662273476112</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.301948051948052</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.3118466898954704</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.2954924874791319</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.3001658374792703</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.3338815789473684</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>0.3117193336878386</v>
+        <v>0.3114248043724379</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01256244501832806</v>
+        <v>0.01424057628614986</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,160 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02499842974687519</v>
+        <v>0.02496060510557832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02518891687657431</v>
+        <v>0.02382603214623385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02430577419557962</v>
+        <v>0.02445943390279266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02377657566989558</v>
+        <v>0.0228362351753722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02459171448388927</v>
+        <v>0.02502357749135492</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02200303490136571</v>
+        <v>0.02258675078864353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02502829832725443</v>
+        <v>0.02357241900920207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02494959677419355</v>
+        <v>0.02319571383548692</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02197247127162521</v>
+        <v>0.02479859013091642</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02369698115585807</v>
+        <v>0.02469446894292554</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02265005662514157</v>
+        <v>0.02246340232205957</v>
       </c>
       <c r="M4" t="n">
-        <v>0.022973996465539</v>
+        <v>0.0223442529823897</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02268145161290323</v>
+        <v>0.02405693053718748</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02299576726261925</v>
+        <v>0.02221941674031057</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02395662589837347</v>
+        <v>0.0223160814473933</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02384557153671461</v>
+        <v>0.02328801611278953</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0259919638372677</v>
+        <v>0.02190982776089159</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02356647763074984</v>
+        <v>0.02291469940195153</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02418897637795276</v>
+        <v>0.02346559010912761</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02310022721534966</v>
+        <v>0.02543279823733081</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02454991816693944</v>
+        <v>0.0232147363108756</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02504877588268614</v>
+        <v>0.02247758555373153</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02505981614406246</v>
+        <v>0.02148363452546443</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02464943721310444</v>
+        <v>0.02360217089486305</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02378106322743001</v>
+        <v>0.02308565661662672</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02522273811017694</v>
+        <v>0.02286797220467467</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0231898670363602</v>
+        <v>0.02262815245559699</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02332618837473207</v>
+        <v>0.02429812413445802</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02418288305308899</v>
+        <v>0.02405693053718748</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02443786609561</v>
+        <v>0.02481108312342569</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02224609745307464</v>
+        <v>0.02410398788490661</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02447023208879919</v>
+        <v>0.02492917847025496</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02423018677435639</v>
+        <v>0.02267288071545535</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02371043006684323</v>
+        <v>0.02432262129804663</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02287375205358272</v>
+        <v>0.0257153661918568</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02559116853791633</v>
+        <v>0.0236820558039932</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.023841059602649</v>
+        <v>0.02457931556059747</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.02210712481051036</v>
+        <v>0.0231913284597933</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02449133383571967</v>
+        <v>0.02304205489801058</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.02209874984215179</v>
+        <v>0.02218720453829184</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0228319142226427</v>
+        <v>0.02457466918714556</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02273014269478469</v>
+        <v>0.02627939142461964</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02391441157960982</v>
+        <v>0.0241783150736683</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0250535062319023</v>
+        <v>0.02418136020151133</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0240796772566818</v>
+        <v>0.02395662589837348</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02343011904012093</v>
+        <v>0.02246765541180183</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02263960032884336</v>
+        <v>0.02421185372005044</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02231326820044122</v>
+        <v>0.02611097162942505</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02284776571572835</v>
+        <v>0.02596256852983805</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02557158153303521</v>
+        <v>0.0250330209447135</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02381967166078613</v>
+        <v>0.02376546628758393</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.001053753822557194</v>
+        <v>0.001155664846199266</v>
       </c>
     </row>
     <row r="5">
@@ -1083,61 +1083,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04656577415599535</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0470314318975553</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="D5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04633294528521537</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.04726426076833527</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.04679860302677532</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0470314318975553</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.04679860302677532</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0470314318975553</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0470314318975553</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.04656577415599535</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.04656577415599535</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.04656577415599535</v>
-      </c>
       <c r="M5" t="n">
         <v>0.04679860302677532</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04679860302677532</v>
+        <v>0.04633294528521537</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04633294528521537</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0470314318975553</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0470314318975553</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04656577415599535</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="S5" t="n">
         <v>0.0470314318975553</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04633294528521537</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="U5" t="n">
         <v>0.04679860302677532</v>
@@ -1146,10 +1146,10 @@
         <v>0.0470314318975553</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04656577415599535</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04679860302677532</v>
+        <v>0.04726426076833527</v>
       </c>
       <c r="Y5" t="n">
         <v>0.04633294528521537</v>
@@ -1158,52 +1158,52 @@
         <v>0.04656577415599535</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04633294528521537</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04633294528521537</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04656577415599535</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="AD5" t="n">
         <v>0.04656577415599535</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04726426076833527</v>
+        <v>0.04656577415599535</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04633294528521537</v>
+        <v>0.04656577415599535</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.04656577415599535</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.04726426076833527</v>
+        <v>0.04679860302677532</v>
       </c>
       <c r="AI5" t="n">
         <v>0.0470314318975553</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.04656577415599535</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="AK5" t="n">
         <v>0.04726426076833527</v>
       </c>
       <c r="AL5" t="n">
+        <v>0.0470314318975553</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.04656577415599535</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.04633294528521537</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0.04679860302677532</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.04679860302677532</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.04679860302677532</v>
-      </c>
       <c r="AP5" t="n">
-        <v>0.0470314318975553</v>
+        <v>0.04633294528521537</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.04679860302677532</v>
@@ -1212,16 +1212,16 @@
         <v>0.0470314318975553</v>
       </c>
       <c r="AS5" t="n">
+        <v>0.04679860302677532</v>
+      </c>
+      <c r="AT5" t="n">
         <v>0.04633294528521537</v>
       </c>
-      <c r="AT5" t="n">
-        <v>0.04656577415599535</v>
-      </c>
       <c r="AU5" t="n">
-        <v>0.04633294528521537</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.04679860302677532</v>
+        <v>0.0470314318975553</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0470314318975553</v>
@@ -1233,10 +1233,10 @@
         <v>0.04679860302677532</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04675669383003493</v>
+        <v>0.04680325960419091</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0002858774477889798</v>
+        <v>0.0002654249126891741</v>
       </c>
     </row>
   </sheetData>
